--- a/data/pca/factorExposure/factorExposure_2009-01-07.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-01-07.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01793159620814441</v>
+        <v>-0.01706975378164301</v>
       </c>
       <c r="C2">
-        <v>-0.008737918916902936</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.01085759523051759</v>
+      </c>
+      <c r="D2">
+        <v>-0.01234978295810414</v>
+      </c>
+      <c r="E2">
+        <v>0.01349838320265417</v>
+      </c>
+      <c r="F2">
+        <v>0.008116033545131213</v>
+      </c>
+      <c r="G2">
+        <v>0.01698099834097836</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08066426976753102</v>
+        <v>-0.08347927430554505</v>
       </c>
       <c r="C4">
-        <v>-0.08469894337357385</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.08777216315813917</v>
+      </c>
+      <c r="D4">
+        <v>0.06154528984457857</v>
+      </c>
+      <c r="E4">
+        <v>0.02715188755621836</v>
+      </c>
+      <c r="F4">
+        <v>0.02813955729534732</v>
+      </c>
+      <c r="G4">
+        <v>0.02802861626888018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.003887994416520978</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.001208912115242603</v>
+      </c>
+      <c r="D5">
+        <v>0.000681606029291348</v>
+      </c>
+      <c r="E5">
+        <v>-0.00444908330300688</v>
+      </c>
+      <c r="F5">
+        <v>0.001667718201960954</v>
+      </c>
+      <c r="G5">
+        <v>-0.00569845195237717</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1682779806496557</v>
+        <v>-0.1693898922650897</v>
       </c>
       <c r="C6">
-        <v>0.02176679402449965</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.01101541215436702</v>
+      </c>
+      <c r="D6">
+        <v>0.05717842296533075</v>
+      </c>
+      <c r="E6">
+        <v>-0.06566099246982371</v>
+      </c>
+      <c r="F6">
+        <v>0.01418691705475679</v>
+      </c>
+      <c r="G6">
+        <v>-0.02272482614775865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05515678124081235</v>
+        <v>-0.05662447429747241</v>
       </c>
       <c r="C7">
-        <v>-0.05736062757856237</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.06271119801670839</v>
+      </c>
+      <c r="D7">
+        <v>0.07191658391680954</v>
+      </c>
+      <c r="E7">
+        <v>0.06787920827127371</v>
+      </c>
+      <c r="F7">
+        <v>0.008848372627443051</v>
+      </c>
+      <c r="G7">
+        <v>0.07458863950934126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.05325493627319807</v>
+        <v>-0.05094352220755327</v>
       </c>
       <c r="C8">
-        <v>-0.0560481231093319</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.05493527701214279</v>
+      </c>
+      <c r="D8">
+        <v>-0.01380891496231786</v>
+      </c>
+      <c r="E8">
+        <v>0.04351187456745537</v>
+      </c>
+      <c r="F8">
+        <v>-0.0009899208353396148</v>
+      </c>
+      <c r="G8">
+        <v>0.00189302497552217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05793478754068042</v>
+        <v>-0.06239500570951011</v>
       </c>
       <c r="C9">
-        <v>-0.09194912511588596</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.09316008476524809</v>
+      </c>
+      <c r="D9">
+        <v>0.09098777587608803</v>
+      </c>
+      <c r="E9">
+        <v>0.05072732589526785</v>
+      </c>
+      <c r="F9">
+        <v>0.01818604118014798</v>
+      </c>
+      <c r="G9">
+        <v>0.003240588794129757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1141651191912335</v>
+        <v>-0.1018011587229086</v>
       </c>
       <c r="C10">
-        <v>0.1470648491765434</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.137025614635204</v>
+      </c>
+      <c r="D10">
+        <v>-0.09393591475715053</v>
+      </c>
+      <c r="E10">
+        <v>0.05500127223743252</v>
+      </c>
+      <c r="F10">
+        <v>-0.01744006850470234</v>
+      </c>
+      <c r="G10">
+        <v>-0.01036244081988642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.07844867103843189</v>
+        <v>-0.07592703576329771</v>
       </c>
       <c r="C11">
-        <v>-0.131788337209992</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.1308694139784509</v>
+      </c>
+      <c r="D11">
+        <v>0.04852829965589416</v>
+      </c>
+      <c r="E11">
+        <v>0.07387075988344083</v>
+      </c>
+      <c r="F11">
+        <v>0.01635819269338403</v>
+      </c>
+      <c r="G11">
+        <v>-0.004110406262156563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.07970587508245712</v>
+        <v>-0.07633489397429405</v>
       </c>
       <c r="C12">
-        <v>-0.1582496863759921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.1551857482359399</v>
+      </c>
+      <c r="D12">
+        <v>0.05562519551645873</v>
+      </c>
+      <c r="E12">
+        <v>0.07865518024947291</v>
+      </c>
+      <c r="F12">
+        <v>0.009677990536083576</v>
+      </c>
+      <c r="G12">
+        <v>0.02161855012158232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04119644502584881</v>
+        <v>-0.04275848768739358</v>
       </c>
       <c r="C13">
-        <v>-0.06723102055606323</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.07219066963569715</v>
+      </c>
+      <c r="D13">
+        <v>0.03627557534177001</v>
+      </c>
+      <c r="E13">
+        <v>0.07718956910416026</v>
+      </c>
+      <c r="F13">
+        <v>0.01043965432398624</v>
+      </c>
+      <c r="G13">
+        <v>0.03074408754543118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.02056976479774746</v>
+        <v>-0.0229912979715145</v>
       </c>
       <c r="C14">
-        <v>-0.04780336499573432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.04897810183103177</v>
+      </c>
+      <c r="D14">
+        <v>0.04356522740085646</v>
+      </c>
+      <c r="E14">
+        <v>0.07139608812252655</v>
+      </c>
+      <c r="F14">
+        <v>0.01265909649693056</v>
+      </c>
+      <c r="G14">
+        <v>-0.01002512953542562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03306744216858091</v>
+        <v>-0.03365545062130833</v>
       </c>
       <c r="C15">
-        <v>-0.0606552308753599</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.05882045300355122</v>
+      </c>
+      <c r="D15">
+        <v>0.04585811526626667</v>
+      </c>
+      <c r="E15">
+        <v>0.03077162646797953</v>
+      </c>
+      <c r="F15">
+        <v>-0.01751822361157405</v>
+      </c>
+      <c r="G15">
+        <v>0.0121809591829229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05743570838961339</v>
+        <v>-0.05609671910158399</v>
       </c>
       <c r="C16">
-        <v>-0.1536835182970415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.152432421677498</v>
+      </c>
+      <c r="D16">
+        <v>0.0512079793479816</v>
+      </c>
+      <c r="E16">
+        <v>0.06212003278565293</v>
+      </c>
+      <c r="F16">
+        <v>0.03331501692258586</v>
+      </c>
+      <c r="G16">
+        <v>-0.01393331635496791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.006471817030748678</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>0.004115716117914097</v>
+      </c>
+      <c r="D17">
+        <v>-0.002019981101424306</v>
+      </c>
+      <c r="E17">
+        <v>-0.008159090291237119</v>
+      </c>
+      <c r="F17">
+        <v>-0.009737086908346066</v>
+      </c>
+      <c r="G17">
+        <v>-0.008214075754605569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04272180325568486</v>
+        <v>-0.05299195370622851</v>
       </c>
       <c r="C18">
-        <v>-0.05196985858232701</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.04698426246776215</v>
+      </c>
+      <c r="D18">
+        <v>-0.006303181406288778</v>
+      </c>
+      <c r="E18">
+        <v>-0.05490632802351657</v>
+      </c>
+      <c r="F18">
+        <v>-0.01147765938738467</v>
+      </c>
+      <c r="G18">
+        <v>-0.01460129643788676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.05722287909374393</v>
+        <v>-0.05629228779996155</v>
       </c>
       <c r="C20">
-        <v>-0.1001350588967955</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.09865093446277241</v>
+      </c>
+      <c r="D20">
+        <v>0.07261437739022376</v>
+      </c>
+      <c r="E20">
+        <v>0.06497012052319177</v>
+      </c>
+      <c r="F20">
+        <v>0.008980332003539157</v>
+      </c>
+      <c r="G20">
+        <v>0.005095596653760074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04431003048994461</v>
+        <v>-0.04528887045297466</v>
       </c>
       <c r="C21">
-        <v>-0.06242085345647551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.06024531615794876</v>
+      </c>
+      <c r="D21">
+        <v>0.01757452811350184</v>
+      </c>
+      <c r="E21">
+        <v>0.06787638256561677</v>
+      </c>
+      <c r="F21">
+        <v>0.01450857364226756</v>
+      </c>
+      <c r="G21">
+        <v>0.02626202529840304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04380715769841649</v>
+        <v>-0.04410424419666718</v>
       </c>
       <c r="C22">
-        <v>-0.03418056163904915</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.0382315534508458</v>
+      </c>
+      <c r="D22">
+        <v>-0.1035860962804162</v>
+      </c>
+      <c r="E22">
+        <v>-0.05433021303889765</v>
+      </c>
+      <c r="F22">
+        <v>0.08642886590286035</v>
+      </c>
+      <c r="G22">
+        <v>-0.1159698958386613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0438166210214351</v>
+        <v>-0.04411255826651484</v>
       </c>
       <c r="C23">
-        <v>-0.0341740910348935</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.0382258958975624</v>
+      </c>
+      <c r="D23">
+        <v>-0.1036270147005319</v>
+      </c>
+      <c r="E23">
+        <v>-0.05432716871829273</v>
+      </c>
+      <c r="F23">
+        <v>0.08642727650687745</v>
+      </c>
+      <c r="G23">
+        <v>-0.1160335512912803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06534784147846236</v>
+        <v>-0.06395307842224165</v>
       </c>
       <c r="C24">
-        <v>-0.1409603284152896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.1375244638937457</v>
+      </c>
+      <c r="D24">
+        <v>0.05769425980497206</v>
+      </c>
+      <c r="E24">
+        <v>0.06599753911110824</v>
+      </c>
+      <c r="F24">
+        <v>0.02138065320855578</v>
+      </c>
+      <c r="G24">
+        <v>0.005157351159197644</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07051567792766809</v>
+        <v>-0.06838260838328696</v>
       </c>
       <c r="C25">
-        <v>-0.1228254754857406</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.121213433953402</v>
+      </c>
+      <c r="D25">
+        <v>0.04462806683670148</v>
+      </c>
+      <c r="E25">
+        <v>0.09483731931463167</v>
+      </c>
+      <c r="F25">
+        <v>-0.004410669895564515</v>
+      </c>
+      <c r="G25">
+        <v>0.0346412975867738</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.05620014146285219</v>
+        <v>-0.0601083825899565</v>
       </c>
       <c r="C26">
-        <v>-0.07000940792757364</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.07245230523646483</v>
+      </c>
+      <c r="D26">
+        <v>0.01939300617465608</v>
+      </c>
+      <c r="E26">
+        <v>0.07973474530685436</v>
+      </c>
+      <c r="F26">
+        <v>-0.001271858900672636</v>
+      </c>
+      <c r="G26">
+        <v>0.01785414453510016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1722583423569373</v>
+        <v>-0.1758223975622709</v>
       </c>
       <c r="C28">
-        <v>0.2314194418699861</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.2309545343944357</v>
+      </c>
+      <c r="D28">
+        <v>0.004159276850995338</v>
+      </c>
+      <c r="E28">
+        <v>0.1543359713434203</v>
+      </c>
+      <c r="F28">
+        <v>-0.02139035316451396</v>
+      </c>
+      <c r="G28">
+        <v>0.02698388437092862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02497019750133559</v>
+        <v>-0.02675689120854025</v>
       </c>
       <c r="C29">
-        <v>-0.05502708937205803</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.05301788243599891</v>
+      </c>
+      <c r="D29">
+        <v>0.009914842635091957</v>
+      </c>
+      <c r="E29">
+        <v>0.06898138719735193</v>
+      </c>
+      <c r="F29">
+        <v>0.01265068173757924</v>
+      </c>
+      <c r="G29">
+        <v>-0.006405817325808452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03748926180217849</v>
+        <v>-0.03926252795097055</v>
       </c>
       <c r="C30">
-        <v>-0.06880976105528648</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.07544887554424441</v>
+      </c>
+      <c r="D30">
+        <v>0.1440750856869588</v>
+      </c>
+      <c r="E30">
+        <v>0.0768504010222083</v>
+      </c>
+      <c r="F30">
+        <v>-0.03076995072226535</v>
+      </c>
+      <c r="G30">
+        <v>0.03967922218211312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05248601678262414</v>
+        <v>-0.05161752867559478</v>
       </c>
       <c r="C31">
-        <v>-0.03683498524239406</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.03895973493506818</v>
+      </c>
+      <c r="D31">
+        <v>0.001447948826550624</v>
+      </c>
+      <c r="E31">
+        <v>0.008128720748403387</v>
+      </c>
+      <c r="F31">
+        <v>0.04549097972442161</v>
+      </c>
+      <c r="G31">
+        <v>-0.01469284858472326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04271833878189851</v>
+        <v>-0.04599984805737235</v>
       </c>
       <c r="C32">
-        <v>-0.05577374356220813</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.05408156407710793</v>
+      </c>
+      <c r="D32">
+        <v>0.01212608907597008</v>
+      </c>
+      <c r="E32">
+        <v>0.004828308785773326</v>
+      </c>
+      <c r="F32">
+        <v>-0.0162647015050459</v>
+      </c>
+      <c r="G32">
+        <v>0.01162000495223712</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07724380450329738</v>
+        <v>-0.08133512689209042</v>
       </c>
       <c r="C33">
-        <v>-0.1159504190526373</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.1248255070310133</v>
+      </c>
+      <c r="D33">
+        <v>0.07581292543246408</v>
+      </c>
+      <c r="E33">
+        <v>0.05958019527324725</v>
+      </c>
+      <c r="F33">
+        <v>0.02971076981813078</v>
+      </c>
+      <c r="G33">
+        <v>-0.01881877418228906</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.0545417519243175</v>
+        <v>-0.05361439380231137</v>
       </c>
       <c r="C34">
-        <v>-0.1256570465744276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.1253001914612826</v>
+      </c>
+      <c r="D34">
+        <v>0.084183338615822</v>
+      </c>
+      <c r="E34">
+        <v>0.08209609756592869</v>
+      </c>
+      <c r="F34">
+        <v>-0.001797674373047277</v>
+      </c>
+      <c r="G34">
+        <v>-0.02490987639865525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02646250158906143</v>
+        <v>-0.0287865510182914</v>
       </c>
       <c r="C35">
-        <v>-0.01845338803545167</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.02081531504223717</v>
+      </c>
+      <c r="D35">
+        <v>0.009648869799186997</v>
+      </c>
+      <c r="E35">
+        <v>0.03180078918717379</v>
+      </c>
+      <c r="F35">
+        <v>-0.011802332319942</v>
+      </c>
+      <c r="G35">
+        <v>-0.02214762420818656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02507407769534066</v>
+        <v>-0.0272661799130496</v>
       </c>
       <c r="C36">
-        <v>-0.05394313642251498</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.05275803932181766</v>
+      </c>
+      <c r="D36">
+        <v>0.05709040852450244</v>
+      </c>
+      <c r="E36">
+        <v>0.02009015096033048</v>
+      </c>
+      <c r="F36">
+        <v>-0.02679558660328682</v>
+      </c>
+      <c r="G36">
+        <v>-0.08915025697367437</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0005714953108407216</v>
+        <v>-0.003810531042165</v>
       </c>
       <c r="C37">
-        <v>0.0002713914192749961</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.00712787422392435</v>
+      </c>
+      <c r="D37">
+        <v>0.001900804458389907</v>
+      </c>
+      <c r="E37">
+        <v>0.009350024414479215</v>
+      </c>
+      <c r="F37">
+        <v>0.005855910615738553</v>
+      </c>
+      <c r="G37">
+        <v>0.004368998499378241</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.07970891565933115</v>
+        <v>-0.07487670098592766</v>
       </c>
       <c r="C39">
-        <v>-0.1530514131928794</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.1465043402402512</v>
+      </c>
+      <c r="D39">
+        <v>0.02471614696913002</v>
+      </c>
+      <c r="E39">
+        <v>0.1223131132018627</v>
+      </c>
+      <c r="F39">
+        <v>0.05582541625717145</v>
+      </c>
+      <c r="G39">
+        <v>0.02982212298423284</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.04731151845756271</v>
+        <v>-0.05054956573547389</v>
       </c>
       <c r="C40">
-        <v>-0.07135566325501874</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.07685410821470587</v>
+      </c>
+      <c r="D40">
+        <v>0.01046187703285238</v>
+      </c>
+      <c r="E40">
+        <v>0.05273322403898554</v>
+      </c>
+      <c r="F40">
+        <v>-0.0382095510648956</v>
+      </c>
+      <c r="G40">
+        <v>-0.004437320745440526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02800380787465341</v>
+        <v>-0.02824562944436654</v>
       </c>
       <c r="C41">
-        <v>-0.02327336139793012</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.02439742378221723</v>
+      </c>
+      <c r="D41">
+        <v>-0.01134358431337131</v>
+      </c>
+      <c r="E41">
+        <v>-0.007968129315787232</v>
+      </c>
+      <c r="F41">
+        <v>-0.01551722359011792</v>
+      </c>
+      <c r="G41">
+        <v>-0.003518017107058801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04259844175883062</v>
+        <v>-0.04133219458484534</v>
       </c>
       <c r="C43">
-        <v>-0.04064656154351454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.03716537027313647</v>
+      </c>
+      <c r="D43">
+        <v>-0.01492624476050958</v>
+      </c>
+      <c r="E43">
+        <v>0.01638990501435704</v>
+      </c>
+      <c r="F43">
+        <v>0.02769449675908281</v>
+      </c>
+      <c r="G43">
+        <v>-0.03210859321444093</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05841152570541782</v>
+        <v>-0.06222372922117835</v>
       </c>
       <c r="C44">
-        <v>-0.08957006292161672</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.0913555758368448</v>
+      </c>
+      <c r="D44">
+        <v>0.2900992975708104</v>
+      </c>
+      <c r="E44">
+        <v>0.1182933361413598</v>
+      </c>
+      <c r="F44">
+        <v>-0.0643328632201277</v>
+      </c>
+      <c r="G44">
+        <v>-0.1459202609910833</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0005624410454193081</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.0006906783720937365</v>
+      </c>
+      <c r="D45">
+        <v>-0.0002715282316374751</v>
+      </c>
+      <c r="E45">
+        <v>-0.00259242047991852</v>
+      </c>
+      <c r="F45">
+        <v>0.002272848446845651</v>
+      </c>
+      <c r="G45">
+        <v>0.003290345051000747</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.02822334627143902</v>
+        <v>-0.02927166747250328</v>
       </c>
       <c r="C46">
-        <v>-0.04147899567552601</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.03950299332602526</v>
+      </c>
+      <c r="D46">
+        <v>0.003102709826428915</v>
+      </c>
+      <c r="E46">
+        <v>0.0573257505505578</v>
+      </c>
+      <c r="F46">
+        <v>0.05023636926576617</v>
+      </c>
+      <c r="G46">
+        <v>-0.007014490675744918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05477632876212747</v>
+        <v>-0.05319787748446276</v>
       </c>
       <c r="C47">
-        <v>-0.03841235907139501</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.03795945951265298</v>
+      </c>
+      <c r="D47">
+        <v>-0.03771938329379913</v>
+      </c>
+      <c r="E47">
+        <v>-0.01969186732228413</v>
+      </c>
+      <c r="F47">
+        <v>0.05725266049184601</v>
+      </c>
+      <c r="G47">
+        <v>-0.0342921717462418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04716650510811322</v>
+        <v>-0.04923009688828354</v>
       </c>
       <c r="C48">
-        <v>-0.06921031763322676</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.06922121305866454</v>
+      </c>
+      <c r="D48">
+        <v>0.03008899100298905</v>
+      </c>
+      <c r="E48">
+        <v>0.06065554667312463</v>
+      </c>
+      <c r="F48">
+        <v>0.01134346152239141</v>
+      </c>
+      <c r="G48">
+        <v>0.03855064331303255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1912098363271855</v>
+        <v>-0.1964589807078669</v>
       </c>
       <c r="C49">
-        <v>0.01619780438317039</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.01170595144425137</v>
+      </c>
+      <c r="D49">
+        <v>0.04385840793848143</v>
+      </c>
+      <c r="E49">
+        <v>-0.03954484818586777</v>
+      </c>
+      <c r="F49">
+        <v>-0.03120519488054012</v>
+      </c>
+      <c r="G49">
+        <v>0.06642768328274831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05188509566281986</v>
+        <v>-0.05209805554711052</v>
       </c>
       <c r="C50">
-        <v>-0.03533096489292911</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.03782137174667535</v>
+      </c>
+      <c r="D50">
+        <v>0.01658579024763226</v>
+      </c>
+      <c r="E50">
+        <v>0.0008850637703260718</v>
+      </c>
+      <c r="F50">
+        <v>0.03946833648358521</v>
+      </c>
+      <c r="G50">
+        <v>-0.005708323241678872</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1414883501286623</v>
+        <v>-0.1364892440984785</v>
       </c>
       <c r="C52">
-        <v>-0.03494575631265222</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>0.034092174223342</v>
+      </c>
+      <c r="D52">
+        <v>0.0362591572914298</v>
+      </c>
+      <c r="E52">
+        <v>-0.09457930488339328</v>
+      </c>
+      <c r="F52">
+        <v>0.06878168239364515</v>
+      </c>
+      <c r="G52">
+        <v>-0.04311693656052343</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1683482191229441</v>
+        <v>-0.16179458309085</v>
       </c>
       <c r="C53">
-        <v>0.008902497606778593</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.005040575927018458</v>
+      </c>
+      <c r="D53">
+        <v>0.07209416527309692</v>
+      </c>
+      <c r="E53">
+        <v>-0.1536014099586316</v>
+      </c>
+      <c r="F53">
+        <v>0.1122626445827108</v>
+      </c>
+      <c r="G53">
+        <v>-0.04125977052511848</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01169818105587346</v>
+        <v>-0.01348901470667245</v>
       </c>
       <c r="C54">
-        <v>-0.03743238561793371</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.03764880717089863</v>
+      </c>
+      <c r="D54">
+        <v>0.01254861828978053</v>
+      </c>
+      <c r="E54">
+        <v>0.04309268931104045</v>
+      </c>
+      <c r="F54">
+        <v>0.0134919177391076</v>
+      </c>
+      <c r="G54">
+        <v>0.0002543000583209414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1212922738031358</v>
+        <v>-0.1189556539110664</v>
       </c>
       <c r="C55">
-        <v>-0.01220339245099037</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.01645105995514341</v>
+      </c>
+      <c r="D55">
+        <v>0.04712563644537656</v>
+      </c>
+      <c r="E55">
+        <v>-0.07400604838212761</v>
+      </c>
+      <c r="F55">
+        <v>0.126286802335319</v>
+      </c>
+      <c r="G55">
+        <v>-0.05171247581107377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1798225209536495</v>
+        <v>-0.1745676551397557</v>
       </c>
       <c r="C56">
-        <v>0.006187314328646192</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.005485306005383568</v>
+      </c>
+      <c r="D56">
+        <v>0.01915057948599678</v>
+      </c>
+      <c r="E56">
+        <v>-0.178880265406749</v>
+      </c>
+      <c r="F56">
+        <v>0.1036866749535295</v>
+      </c>
+      <c r="G56">
+        <v>-0.02703850924451773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.04252592675151066</v>
+        <v>-0.0417801718329024</v>
       </c>
       <c r="C58">
-        <v>-0.09852469045995414</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.1083864724757531</v>
+      </c>
+      <c r="D58">
+        <v>-0.00420061978329037</v>
+      </c>
+      <c r="E58">
+        <v>0.03057382705870739</v>
+      </c>
+      <c r="F58">
+        <v>0.03472148354292354</v>
+      </c>
+      <c r="G58">
+        <v>0.0002070191045087384</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1846781842552177</v>
+        <v>-0.1915779278559374</v>
       </c>
       <c r="C59">
-        <v>0.1710844633713063</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.178461136237425</v>
+      </c>
+      <c r="D59">
+        <v>-0.08137308605402592</v>
+      </c>
+      <c r="E59">
+        <v>0.07615060680059134</v>
+      </c>
+      <c r="F59">
+        <v>0.02629101601475509</v>
+      </c>
+      <c r="G59">
+        <v>0.04301558055682189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2120222084344197</v>
+        <v>-0.2097656002598189</v>
       </c>
       <c r="C60">
-        <v>-0.006897647867821598</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.01062940942169895</v>
+      </c>
+      <c r="D60">
+        <v>-0.07320384597053073</v>
+      </c>
+      <c r="E60">
+        <v>-0.1838306819464995</v>
+      </c>
+      <c r="F60">
+        <v>0.02343203752221978</v>
+      </c>
+      <c r="G60">
+        <v>0.100370668563261</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.06241090735960556</v>
+        <v>-0.06035928017491923</v>
       </c>
       <c r="C61">
-        <v>-0.1277747305240572</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.1256494271474422</v>
+      </c>
+      <c r="D61">
+        <v>0.02384441682928018</v>
+      </c>
+      <c r="E61">
+        <v>0.08146363140358595</v>
+      </c>
+      <c r="F61">
+        <v>0.01820673535174095</v>
+      </c>
+      <c r="G61">
+        <v>0.02569106220553847</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.1699214973740961</v>
+        <v>-0.1659942763560302</v>
       </c>
       <c r="C62">
-        <v>0.005839074805832621</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.004888963439585215</v>
+      </c>
+      <c r="D62">
+        <v>0.01842204147586119</v>
+      </c>
+      <c r="E62">
+        <v>-0.1501425819718152</v>
+      </c>
+      <c r="F62">
+        <v>0.09369796727763058</v>
+      </c>
+      <c r="G62">
+        <v>-0.03660151981896198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.03946639394572232</v>
+        <v>-0.04172982154271465</v>
       </c>
       <c r="C63">
-        <v>-0.07799780624456276</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.08161293814254951</v>
+      </c>
+      <c r="D63">
+        <v>0.01591731931963168</v>
+      </c>
+      <c r="E63">
+        <v>0.04450189231627791</v>
+      </c>
+      <c r="F63">
+        <v>-0.01071580714618205</v>
+      </c>
+      <c r="G63">
+        <v>-0.02129664153845997</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1116718215248631</v>
+        <v>-0.1091751634304395</v>
       </c>
       <c r="C64">
-        <v>-0.05432275425472043</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.05891494385697288</v>
+      </c>
+      <c r="D64">
+        <v>0.02257117181619998</v>
+      </c>
+      <c r="E64">
+        <v>-0.04034596894766389</v>
+      </c>
+      <c r="F64">
+        <v>-0.007106520623426369</v>
+      </c>
+      <c r="G64">
+        <v>0.01263113269732038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1589368977363642</v>
+        <v>-0.1610548648103197</v>
       </c>
       <c r="C65">
-        <v>0.06077187307979148</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04892847073977379</v>
+      </c>
+      <c r="D65">
+        <v>0.06437370076635866</v>
+      </c>
+      <c r="E65">
+        <v>-0.02541010910131234</v>
+      </c>
+      <c r="F65">
+        <v>0.05044130101281948</v>
+      </c>
+      <c r="G65">
+        <v>-0.02346436237399268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09635047645801122</v>
+        <v>-0.09184677735861914</v>
       </c>
       <c r="C66">
-        <v>-0.1325938774335533</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.13141797097335</v>
+      </c>
+      <c r="D66">
+        <v>0.0277132141948047</v>
+      </c>
+      <c r="E66">
+        <v>0.09933193672038042</v>
+      </c>
+      <c r="F66">
+        <v>0.005929047325515251</v>
+      </c>
+      <c r="G66">
+        <v>0.005667727986229609</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05502104410718872</v>
+        <v>-0.04825213050995293</v>
       </c>
       <c r="C67">
-        <v>-0.09418494886575057</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.08527363679262917</v>
+      </c>
+      <c r="D67">
+        <v>-0.0715612851764422</v>
+      </c>
+      <c r="E67">
+        <v>-0.05034690764394106</v>
+      </c>
+      <c r="F67">
+        <v>0.04247363683428079</v>
+      </c>
+      <c r="G67">
+        <v>-0.059685956877323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1418937872210186</v>
+        <v>-0.1443200007832922</v>
       </c>
       <c r="C68">
-        <v>0.2518914730506958</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.2514564117278904</v>
+      </c>
+      <c r="D68">
+        <v>0.0009744144328764062</v>
+      </c>
+      <c r="E68">
+        <v>0.1478647407375777</v>
+      </c>
+      <c r="F68">
+        <v>-0.03313634780005098</v>
+      </c>
+      <c r="G68">
+        <v>0.07285270777045828</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.04045149478168731</v>
+        <v>-0.03897088529818966</v>
       </c>
       <c r="C69">
-        <v>-0.01844515571769705</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.02027954190593723</v>
+      </c>
+      <c r="D69">
+        <v>-0.01329387598746992</v>
+      </c>
+      <c r="E69">
+        <v>-0.06073189654219115</v>
+      </c>
+      <c r="F69">
+        <v>0.02519974901935729</v>
+      </c>
+      <c r="G69">
+        <v>-0.06676253169404869</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07440973658995488</v>
+        <v>-0.07224083453068952</v>
       </c>
       <c r="C70">
-        <v>-0.09789126689803086</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.09583589273460251</v>
+      </c>
+      <c r="D70">
+        <v>-0.5327520728817221</v>
+      </c>
+      <c r="E70">
+        <v>-0.2693386201432755</v>
+      </c>
+      <c r="F70">
+        <v>0.146488801384899</v>
+      </c>
+      <c r="G70">
+        <v>0.5097853530440568</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1665935275969684</v>
+        <v>-0.1692995278085514</v>
       </c>
       <c r="C71">
-        <v>0.2592985866377731</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.2566130290434315</v>
+      </c>
+      <c r="D71">
+        <v>-0.004188099975742113</v>
+      </c>
+      <c r="E71">
+        <v>0.1569789340778501</v>
+      </c>
+      <c r="F71">
+        <v>-0.04379579453942695</v>
+      </c>
+      <c r="G71">
+        <v>0.08592408197237709</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1454135434852105</v>
+        <v>-0.1497146100280988</v>
       </c>
       <c r="C72">
-        <v>-0.009818389037099898</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.009388571314111829</v>
+      </c>
+      <c r="D72">
+        <v>0.04023645112866775</v>
+      </c>
+      <c r="E72">
+        <v>-0.05187280430312533</v>
+      </c>
+      <c r="F72">
+        <v>0.05951112397662513</v>
+      </c>
+      <c r="G72">
+        <v>-0.08677308424959669</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1916937329609597</v>
+        <v>-0.1996177639461203</v>
       </c>
       <c r="C73">
-        <v>-0.02814463668526149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.03320661710000721</v>
+      </c>
+      <c r="D73">
+        <v>0.03950754436581629</v>
+      </c>
+      <c r="E73">
+        <v>-0.1269182024990609</v>
+      </c>
+      <c r="F73">
+        <v>0.03288864452553603</v>
+      </c>
+      <c r="G73">
+        <v>-0.04206835515184355</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.08738266010416197</v>
+        <v>-0.08598013125262581</v>
       </c>
       <c r="C74">
-        <v>-0.00357648548453912</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.01067139000032035</v>
+      </c>
+      <c r="D74">
+        <v>0.06231763674710131</v>
+      </c>
+      <c r="E74">
+        <v>-0.08780193218713944</v>
+      </c>
+      <c r="F74">
+        <v>0.03279973186272634</v>
+      </c>
+      <c r="G74">
+        <v>-0.04191842027781043</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1233604520653412</v>
+        <v>-0.1159458381365819</v>
       </c>
       <c r="C75">
-        <v>-0.02581898818487231</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02699017882632043</v>
+      </c>
+      <c r="D75">
+        <v>0.01968138489424227</v>
+      </c>
+      <c r="E75">
+        <v>-0.09622004275560811</v>
+      </c>
+      <c r="F75">
+        <v>0.1003481065852231</v>
+      </c>
+      <c r="G75">
+        <v>-0.0733018556737623</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07707634773597317</v>
+        <v>-0.08734035098296947</v>
       </c>
       <c r="C77">
-        <v>-0.1160778454492061</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>0.120067603178135</v>
+      </c>
+      <c r="D77">
+        <v>0.0865078751171405</v>
+      </c>
+      <c r="E77">
+        <v>0.07285515612388951</v>
+      </c>
+      <c r="F77">
+        <v>0.07699517816057437</v>
+      </c>
+      <c r="G77">
+        <v>0.1346982335299208</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.08093345516915357</v>
+        <v>-0.08709766581066956</v>
       </c>
       <c r="C78">
-        <v>-0.1268235169306195</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.1256455164263007</v>
+      </c>
+      <c r="D78">
+        <v>0.06770033998320164</v>
+      </c>
+      <c r="E78">
+        <v>0.08439286542567256</v>
+      </c>
+      <c r="F78">
+        <v>0.1086726095107587</v>
+      </c>
+      <c r="G78">
+        <v>0.02103706015456247</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1677676726648023</v>
+        <v>-0.1634118558827182</v>
       </c>
       <c r="C79">
-        <v>-0.02051301790052729</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.02157538864966652</v>
+      </c>
+      <c r="D79">
+        <v>0.009750472057489627</v>
+      </c>
+      <c r="E79">
+        <v>-0.08030011346149962</v>
+      </c>
+      <c r="F79">
+        <v>0.08322950890072164</v>
+      </c>
+      <c r="G79">
+        <v>-0.04839747024123988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07879166730776745</v>
+        <v>-0.0749038936150636</v>
       </c>
       <c r="C80">
-        <v>-0.0805416668014972</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.0754038671865864</v>
+      </c>
+      <c r="D80">
+        <v>-0.0006862631362531224</v>
+      </c>
+      <c r="E80">
+        <v>0.09558942712832108</v>
+      </c>
+      <c r="F80">
+        <v>-0.06436705896947996</v>
+      </c>
+      <c r="G80">
+        <v>-0.03898836001293328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1122316295972414</v>
+        <v>-0.1060228305493307</v>
       </c>
       <c r="C81">
-        <v>0.01412822322315533</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.01216302644402248</v>
+      </c>
+      <c r="D81">
+        <v>-0.008990330753864309</v>
+      </c>
+      <c r="E81">
+        <v>-0.1023841250552356</v>
+      </c>
+      <c r="F81">
+        <v>0.07555147805346908</v>
+      </c>
+      <c r="G81">
+        <v>-0.1065381738057287</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1630298790365425</v>
+        <v>-0.1578606958366147</v>
       </c>
       <c r="C82">
-        <v>0.01357119948811786</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.00946536375920452</v>
+      </c>
+      <c r="D82">
+        <v>0.07295425991759137</v>
+      </c>
+      <c r="E82">
+        <v>-0.1455839640017888</v>
+      </c>
+      <c r="F82">
+        <v>0.03073293244333769</v>
+      </c>
+      <c r="G82">
+        <v>-0.05888747726971803</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05417137508171076</v>
+        <v>-0.05063914226512428</v>
       </c>
       <c r="C83">
-        <v>-0.06898240240904754</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.06298514213811028</v>
+      </c>
+      <c r="D83">
+        <v>-0.01157836252624078</v>
+      </c>
+      <c r="E83">
+        <v>0.0008208827050811965</v>
+      </c>
+      <c r="F83">
+        <v>-0.004967559008032736</v>
+      </c>
+      <c r="G83">
+        <v>0.02792042126243805</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04753783784398682</v>
+        <v>-0.04628852485533508</v>
       </c>
       <c r="C84">
-        <v>-0.07854979209193209</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.07549704901096452</v>
+      </c>
+      <c r="D84">
+        <v>-0.01989112100926656</v>
+      </c>
+      <c r="E84">
+        <v>-0.00965247891364779</v>
+      </c>
+      <c r="F84">
+        <v>0.01804086149204956</v>
+      </c>
+      <c r="G84">
+        <v>0.01589938467718045</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1390459494000227</v>
+        <v>-0.1344345049160924</v>
       </c>
       <c r="C85">
-        <v>-0.007113044218725206</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.009098838456173763</v>
+      </c>
+      <c r="D85">
+        <v>0.07056942307708768</v>
+      </c>
+      <c r="E85">
+        <v>-0.07969239632184057</v>
+      </c>
+      <c r="F85">
+        <v>0.0849466598687675</v>
+      </c>
+      <c r="G85">
+        <v>-0.06484196451375837</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08275721227374785</v>
+        <v>-0.08298942771187179</v>
       </c>
       <c r="C86">
-        <v>-0.1526815879605034</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.1543383644936659</v>
+      </c>
+      <c r="D86">
+        <v>-0.6166246395867037</v>
+      </c>
+      <c r="E86">
+        <v>0.4528438465238052</v>
+      </c>
+      <c r="F86">
+        <v>0.1841034891963356</v>
+      </c>
+      <c r="G86">
+        <v>-0.4234986618660536</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.09076266719607594</v>
+        <v>-0.08679486707640413</v>
       </c>
       <c r="C87">
-        <v>-0.1003223146011156</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.09971036275197481</v>
+      </c>
+      <c r="D87">
+        <v>0.1171618200771852</v>
+      </c>
+      <c r="E87">
+        <v>0.1193060044919051</v>
+      </c>
+      <c r="F87">
+        <v>-0.1427331020436476</v>
+      </c>
+      <c r="G87">
+        <v>0.1264341865574135</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06032716364539621</v>
+        <v>-0.05981427873832047</v>
       </c>
       <c r="C88">
-        <v>-0.06203027857244391</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.06205793021680298</v>
+      </c>
+      <c r="D88">
+        <v>0.004339548809587339</v>
+      </c>
+      <c r="E88">
+        <v>-0.0288636806344224</v>
+      </c>
+      <c r="F88">
+        <v>0.01769935978284479</v>
+      </c>
+      <c r="G88">
+        <v>-0.005630385604707183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1519098926422597</v>
+        <v>-0.1513141754304775</v>
       </c>
       <c r="C89">
-        <v>0.200716052425895</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.2084784262428132</v>
+      </c>
+      <c r="D89">
+        <v>0.01281206102052037</v>
+      </c>
+      <c r="E89">
+        <v>0.1118295097007572</v>
+      </c>
+      <c r="F89">
+        <v>-0.04597575273701047</v>
+      </c>
+      <c r="G89">
+        <v>0.04454304017081546</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1831052752881242</v>
+        <v>-0.1868399779630837</v>
       </c>
       <c r="C90">
-        <v>0.2324846258688519</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.2354417316859384</v>
+      </c>
+      <c r="D90">
+        <v>-0.002521803657603976</v>
+      </c>
+      <c r="E90">
+        <v>0.1874704042387886</v>
+      </c>
+      <c r="F90">
+        <v>-0.07943863461434564</v>
+      </c>
+      <c r="G90">
+        <v>0.09682136382883456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1262595916355541</v>
+        <v>-0.1205258378760731</v>
       </c>
       <c r="C91">
-        <v>0.01969933676007509</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.01771355422204049</v>
+      </c>
+      <c r="D91">
+        <v>-0.03488124532349356</v>
+      </c>
+      <c r="E91">
+        <v>-0.1341889558493592</v>
+      </c>
+      <c r="F91">
+        <v>0.08101400144770787</v>
+      </c>
+      <c r="G91">
+        <v>-0.1300874303594336</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1749290197844064</v>
+        <v>-0.1765526845189294</v>
       </c>
       <c r="C92">
-        <v>0.2665525387061487</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.2757101527124672</v>
+      </c>
+      <c r="D92">
+        <v>-0.002267057904079945</v>
+      </c>
+      <c r="E92">
+        <v>0.2144576776915007</v>
+      </c>
+      <c r="F92">
+        <v>0.01159399456797996</v>
+      </c>
+      <c r="G92">
+        <v>0.07980182624947785</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1793220393666633</v>
+        <v>-0.1866864877911198</v>
       </c>
       <c r="C93">
-        <v>0.2251672778715064</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.2289443619753239</v>
+      </c>
+      <c r="D93">
+        <v>-0.005701849414652576</v>
+      </c>
+      <c r="E93">
+        <v>0.1091247817772568</v>
+      </c>
+      <c r="F93">
+        <v>0.02663413369908799</v>
+      </c>
+      <c r="G93">
+        <v>0.06703349734254889</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1181874482345709</v>
+        <v>-0.1128779075067349</v>
       </c>
       <c r="C94">
-        <v>-0.03667708264732614</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.03684949700844221</v>
+      </c>
+      <c r="D94">
+        <v>0.01833021823634339</v>
+      </c>
+      <c r="E94">
+        <v>-0.0938991987016372</v>
+      </c>
+      <c r="F94">
+        <v>0.09669860038972754</v>
+      </c>
+      <c r="G94">
+        <v>-0.07026067376397425</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1177188507870539</v>
+        <v>-0.1179560045662324</v>
       </c>
       <c r="C95">
-        <v>-0.1062622730008011</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.1152747553425209</v>
+      </c>
+      <c r="D95">
+        <v>-0.004437329262371122</v>
+      </c>
+      <c r="E95">
+        <v>0.07001588725140721</v>
+      </c>
+      <c r="F95">
+        <v>0.0186663147184888</v>
+      </c>
+      <c r="G95">
+        <v>0.007508038222762198</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1169271424490224</v>
+        <v>-0.1149635522601254</v>
       </c>
       <c r="C96">
-        <v>-0.1279363862544375</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>0.1311007439639305</v>
+      </c>
+      <c r="D96">
+        <v>-0.01527150522148775</v>
+      </c>
+      <c r="E96">
+        <v>-0.05377984184632078</v>
+      </c>
+      <c r="F96">
+        <v>0.0166406155856178</v>
+      </c>
+      <c r="G96">
+        <v>0.1316985133795162</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1967744547810212</v>
+        <v>-0.2003737506792633</v>
       </c>
       <c r="C97">
-        <v>-0.01786067053427318</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.009515446348055932</v>
+      </c>
+      <c r="D97">
+        <v>-0.1822706844292656</v>
+      </c>
+      <c r="E97">
+        <v>-0.2479102831494883</v>
+      </c>
+      <c r="F97">
+        <v>-0.7149725013564117</v>
+      </c>
+      <c r="G97">
+        <v>-0.3932450188351511</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1979366028049046</v>
+        <v>-0.204907736041408</v>
       </c>
       <c r="C98">
-        <v>-0.025362032291052</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.02786886916588374</v>
+      </c>
+      <c r="D98">
+        <v>-0.07001317477398784</v>
+      </c>
+      <c r="E98">
+        <v>-0.07389998042998906</v>
+      </c>
+      <c r="F98">
+        <v>-0.09568553441984944</v>
+      </c>
+      <c r="G98">
+        <v>0.1219837853441424</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05379036979652732</v>
+        <v>-0.05339791505676298</v>
       </c>
       <c r="C99">
-        <v>-0.06308150326646354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.06244469863348135</v>
+      </c>
+      <c r="D99">
+        <v>-0.002188177621430608</v>
+      </c>
+      <c r="E99">
+        <v>0.03779697391693686</v>
+      </c>
+      <c r="F99">
+        <v>-0.02432380362361592</v>
+      </c>
+      <c r="G99">
+        <v>0.008017014001737821</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.09879139872478278</v>
+        <v>-0.09525609669522689</v>
       </c>
       <c r="C100">
-        <v>-0.3096181686795216</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>0.2928043118356877</v>
+      </c>
+      <c r="D100">
+        <v>-0.1245656041512432</v>
+      </c>
+      <c r="E100">
+        <v>0.1208669056384481</v>
+      </c>
+      <c r="F100">
+        <v>-0.4589419488266668</v>
+      </c>
+      <c r="G100">
+        <v>0.3616163365224641</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02490097121159122</v>
+        <v>-0.02669119946972329</v>
       </c>
       <c r="C101">
-        <v>-0.05443837369744609</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.05241453901348877</v>
+      </c>
+      <c r="D101">
+        <v>0.005524094668094746</v>
+      </c>
+      <c r="E101">
+        <v>0.06427795229955845</v>
+      </c>
+      <c r="F101">
+        <v>0.01417785626915473</v>
+      </c>
+      <c r="G101">
+        <v>-0.003707354240621436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
